--- a/Analisis/SPRINTs/Tablas pedidos especiales.xlsx
+++ b/Analisis/SPRINTs/Tablas pedidos especiales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2-Lluvia\Analisis\SPRINTs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\comercializadora\Analisis\SPRINTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A0654E-E4EF-4CCC-B988-518520925033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8339C95-7C44-4A7C-8021-7D616FB2D727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9D406EB-54B5-4C49-A6DD-DF39C8714232}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A9D406EB-54B5-4C49-A6DD-DF39C8714232}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t>idVenta</t>
   </si>
@@ -96,9 +96,6 @@
     <t>idPedidoEspecial</t>
   </si>
   <si>
-    <t>idStatusPedido</t>
-  </si>
-  <si>
     <t>idPedidoEspecialDetalle</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>idTicketMayoreo</t>
   </si>
   <si>
-    <t>codigoUnidadEntrega</t>
-  </si>
-  <si>
     <t>idTipoPago</t>
   </si>
   <si>
@@ -132,18 +126,12 @@
     <t xml:space="preserve">idPedidoEspecial </t>
   </si>
   <si>
-    <t>CuentasPorCobrar</t>
-  </si>
-  <si>
     <t>idCuentaPorCobrar</t>
   </si>
   <si>
     <t>CatTipoPagoPedidoEspecial</t>
   </si>
   <si>
-    <t>AbonosCuentasPorCobrar</t>
-  </si>
-  <si>
     <t>idAbono</t>
   </si>
   <si>
@@ -171,9 +159,6 @@
     <t>EfectivoEntregadoEnCierre</t>
   </si>
   <si>
-    <t>CierresPedidosEspeciales</t>
-  </si>
-  <si>
     <t>idCierrePedidoEspecial</t>
   </si>
   <si>
@@ -183,9 +168,6 @@
     <t>MontoTotalPedidosEspeciales</t>
   </si>
   <si>
-    <t>RetiroEfectivoPedidosEspeciales</t>
-  </si>
-  <si>
     <t>montoRetiro</t>
   </si>
   <si>
@@ -208,13 +190,160 @@
   </si>
   <si>
     <t>MontoTotalPedidosOtros</t>
+  </si>
+  <si>
+    <t>PedidosEspecialesCuentasPorCobrar</t>
+  </si>
+  <si>
+    <t>PedidosEspecialesCierresPedidosEspeciales</t>
+  </si>
+  <si>
+    <t>PedidosEspecialesAbonosCuentasPorCobrar</t>
+  </si>
+  <si>
+    <t>PedidosEspecialesRetiroEfectivoPedidosEspeciales</t>
+  </si>
+  <si>
+    <t>idEstatusPedido</t>
+  </si>
+  <si>
+    <t>ultimoCostoCompra</t>
+  </si>
+  <si>
+    <t>idAlmacenOrigen</t>
+  </si>
+  <si>
+    <t>idAlmacenDestino</t>
+  </si>
+  <si>
+    <t>saldoActual</t>
+  </si>
+  <si>
+    <t>SaldoInicial</t>
+  </si>
+  <si>
+    <t>CatEstatusCuentaPorCobrar</t>
+  </si>
+  <si>
+    <t>idEstatusCuentaPorCobrar</t>
+  </si>
+  <si>
+    <t>liquidado</t>
+  </si>
+  <si>
+    <t>en cobranza</t>
+  </si>
+  <si>
+    <t>en credito</t>
+  </si>
+  <si>
+    <t>idUsuarioEntrega</t>
+  </si>
+  <si>
+    <t>numeroUnidadTaxi</t>
+  </si>
+  <si>
+    <t>Ruteo ,taxi,0 = (Cliente)</t>
+  </si>
+  <si>
+    <t>0,36</t>
+  </si>
+  <si>
+    <t>cantidadAceptada</t>
+  </si>
+  <si>
+    <t>cantidadAtendida</t>
+  </si>
+  <si>
+    <t>cantidadRechazada</t>
+  </si>
+  <si>
+    <t>PedidosEspecialesMovimientosDeMercancia</t>
+  </si>
+  <si>
+    <t>todos los ID BIGINT</t>
+  </si>
+  <si>
+    <t>ENTREGADO</t>
+  </si>
+  <si>
+    <t>EN PROCESO</t>
+  </si>
+  <si>
+    <t>COTIZACION</t>
+  </si>
+  <si>
+    <t>ATENDIDO</t>
+  </si>
+  <si>
+    <t>idEstatusPedidoEspecialDetalle</t>
+  </si>
+  <si>
+    <t>Solcitados</t>
+  </si>
+  <si>
+    <t>Atendidos</t>
+  </si>
+  <si>
+    <t>CatEstatusPedidoEspecialDetalle</t>
+  </si>
+  <si>
+    <t>Rechazados</t>
+  </si>
+  <si>
+    <t>Aceptados</t>
+  </si>
+  <si>
+    <t>notificado</t>
+  </si>
+  <si>
+    <t>MontoTotalPedidosDevueltos</t>
+  </si>
+  <si>
+    <t>Agregar tabla de devoluciones y devolucionesDetalle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parametrizar numero de devoluciones y dias </t>
+  </si>
+  <si>
+    <t>PedidosEspecialesCierresPedidosEspecialesDetalle</t>
+  </si>
+  <si>
+    <t>idAlmacen</t>
+  </si>
+  <si>
+    <t>Ventas Contado</t>
+  </si>
+  <si>
+    <t>Ventas TC</t>
+  </si>
+  <si>
+    <t>Ventas Credito</t>
+  </si>
+  <si>
+    <t>Monto de devoluciones</t>
+  </si>
+  <si>
+    <t>Ingreso por pagos</t>
+  </si>
+  <si>
+    <t>no.Devoluciones</t>
+  </si>
+  <si>
+    <t>NoTickets - Efectivo</t>
+  </si>
+  <si>
+    <t>NoTickets - Credito</t>
+  </si>
+  <si>
+    <t>No de Pedidos en Resguardo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +351,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +386,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,11 +408,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,18 +734,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA8782D-A63D-4DA9-826A-39AC8BB65894}">
-  <dimension ref="A2:K41"/>
+  <dimension ref="A2:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="2.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="2.140625" customWidth="1"/>
     <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
@@ -590,35 +756,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -631,8 +800,11 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
-        <v>25</v>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -645,6 +817,12 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -656,16 +834,28 @@
       <c r="G6" t="s">
         <v>6</v>
       </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -676,293 +866,496 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>800</v>
+      </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1"/>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="D47" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
         <v>3</v>
       </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="D16" t="s">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>5</v>
       </c>
-      <c r="G16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="G53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>7</v>
       </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>7</v>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G45:H45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analisis/SPRINTs/Tablas pedidos especiales.xlsx
+++ b/Analisis/SPRINTs/Tablas pedidos especiales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\comercializadora\Analisis\SPRINTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8339C95-7C44-4A7C-8021-7D616FB2D727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD22EE20-5A8B-4B98-85E9-41AC0C9455CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A9D406EB-54B5-4C49-A6DD-DF39C8714232}"/>
   </bookViews>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA8782D-A63D-4DA9-826A-39AC8BB65894}">
   <dimension ref="A2:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
